--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Maid/maid_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,6 +268,14 @@
   </si>
   <si>
     <t>-165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palaceunlock1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palacelock1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,17 +722,17 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="31.796875" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,19 +744,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -769,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -789,22 +793,22 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -813,19 +817,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>122</v>
@@ -836,15 +840,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>242</v>
@@ -855,15 +863,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E7">
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>122</v>
@@ -874,15 +886,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E8">
         <v>99</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>242</v>
@@ -893,15 +909,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E9">
         <v>99</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>122</v>
@@ -912,15 +932,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E10">
         <v>99</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -931,15 +955,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E11">
         <v>99</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -950,15 +978,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E12">
         <v>99</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>242</v>
@@ -969,15 +1001,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E13">
         <v>99</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>122</v>
@@ -988,15 +1024,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E14">
         <v>99</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1007,15 +1047,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E15">
         <v>99</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -1026,15 +1070,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E16">
         <v>99</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>242</v>
@@ -1045,15 +1093,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E17">
         <v>99</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <v>-63</v>
@@ -1064,15 +1116,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E18">
         <v>99</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>143</v>
@@ -1083,15 +1139,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E19">
         <v>99</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>-342</v>
@@ -1102,15 +1162,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E20">
         <v>99</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20">
         <v>-145</v>
@@ -1121,15 +1185,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E21">
         <v>99</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21">
         <v>-145</v>
@@ -2229,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>Image/GameScene/Palace/image_palacelock1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +730,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,7 +741,7 @@
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,7 +818,9 @@
       <c r="G4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -834,6 +844,9 @@
       <c r="G5">
         <v>122</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -857,6 +870,9 @@
       <c r="G6">
         <v>242</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -880,6 +896,9 @@
       <c r="G7">
         <v>122</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -903,6 +922,9 @@
       <c r="G8">
         <v>242</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -926,6 +948,9 @@
       <c r="G9">
         <v>122</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -949,6 +974,9 @@
       <c r="G10">
         <v>10</v>
       </c>
+      <c r="H10" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -972,6 +1000,9 @@
       <c r="G11">
         <v>10</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -995,6 +1026,9 @@
       <c r="G12">
         <v>242</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1018,6 +1052,9 @@
       <c r="G13">
         <v>122</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1041,6 +1078,9 @@
       <c r="G14">
         <v>10</v>
       </c>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1064,6 +1104,9 @@
       <c r="G15">
         <v>10</v>
       </c>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1087,8 +1130,11 @@
       <c r="G16">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1110,8 +1156,11 @@
       <c r="G17">
         <v>-63</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1133,8 +1182,11 @@
       <c r="G18">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1156,8 +1208,11 @@
       <c r="G19">
         <v>-342</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1179,8 +1234,11 @@
       <c r="G20">
         <v>-145</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1202,78 +1260,81 @@
       <c r="G21">
         <v>-145</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -730,7 +730,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
         <v>65</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>51</v>
@@ -862,7 +862,7 @@
         <v>65</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>54</v>
@@ -888,7 +888,7 @@
         <v>65</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>53</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +734,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,6 +770,9 @@
       <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -788,6 +795,9 @@
       </c>
       <c r="G2" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -243,51 +243,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palaceunlock1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palacelock1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Palace/image_palaceunlock1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Palace/image_palacelock1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Headpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +734,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
         <v>56</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -840,22 +840,22 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>122</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -866,22 +866,22 @@
         <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>242</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -892,22 +892,22 @@
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>122</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -918,22 +918,22 @@
         <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>99</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G8">
         <v>242</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,22 +944,22 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>99</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>122</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -970,22 +970,22 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>99</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,22 +996,22 @@
         <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>99</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1022,22 +1022,22 @@
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>99</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>242</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1048,22 +1048,22 @@
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>99</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>122</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1074,22 +1074,22 @@
         <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>99</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1100,22 +1100,22 @@
         <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>99</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1126,22 +1126,22 @@
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>99</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>242</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1152,22 +1152,22 @@
         <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>99</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>-63</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1178,22 +1178,22 @@
         <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>99</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <v>143</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1204,22 +1204,22 @@
         <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>99</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>-342</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1230,22 +1230,22 @@
         <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>99</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>-145</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1256,22 +1256,22 @@
         <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>99</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G21">
         <v>-145</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -734,7 +734,7 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1216,7 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>-342</v>
+        <v>342</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>62</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -10,12 +10,12 @@
     <sheet name="PalaceMap" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -290,12 +290,61 @@
     <t>165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主子的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter:";"</t>
+  </si>
+  <si>
+    <t>女仆id们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2;3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -730,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -748,7 +797,7 @@
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -773,8 +822,14 @@
       <c r="H1" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -799,14 +854,23 @@
       <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -831,8 +895,14 @@
       <c r="H4" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
@@ -857,8 +927,14 @@
       <c r="H5" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2</v>
       </c>
@@ -883,8 +959,14 @@
       <c r="H6" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>3</v>
       </c>
@@ -909,8 +991,14 @@
       <c r="H7" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>4</v>
       </c>
@@ -935,8 +1023,14 @@
       <c r="H8" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>5</v>
       </c>
@@ -961,8 +1055,14 @@
       <c r="H9" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>6</v>
       </c>
@@ -987,8 +1087,14 @@
       <c r="H10" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1013,8 +1119,14 @@
       <c r="H11" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1039,8 +1151,14 @@
       <c r="H12" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1065,8 +1183,14 @@
       <c r="H13" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1091,8 +1215,14 @@
       <c r="H14" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1117,8 +1247,14 @@
       <c r="H15" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1143,8 +1279,14 @@
       <c r="H16" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1169,8 +1311,14 @@
       <c r="H17" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1195,8 +1343,14 @@
       <c r="H18" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1221,8 +1375,14 @@
       <c r="H19" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1247,8 +1407,14 @@
       <c r="H20" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1273,169 +1439,175 @@
       <c r="H21" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16.5">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="16.5">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="16.5">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="16.5">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="16.5">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="16.5">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="16.5">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="16.5">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="16.5">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16.5">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34"/>
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="16.5">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1447,896 +1619,896 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2352,26 +2524,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2397,7 +2569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -318,33 +318,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;2;3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;3;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;4;5</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17;19;18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -779,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -797,7 +783,7 @@
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -829,12 +815,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
@@ -861,7 +847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -902,7 +888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -928,13 +914,13 @@
         <v>62</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -960,13 +946,13 @@
         <v>62</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -992,13 +978,13 @@
         <v>62</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1024,13 +1010,13 @@
         <v>62</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1056,13 +1042,13 @@
         <v>62</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1088,13 +1074,13 @@
         <v>62</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1120,13 +1106,13 @@
         <v>62</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1152,13 +1138,13 @@
         <v>62</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1184,13 +1170,13 @@
         <v>62</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1216,13 +1202,13 @@
         <v>62</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1248,13 +1234,13 @@
         <v>62</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1280,13 +1266,13 @@
         <v>62</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1312,13 +1298,13 @@
         <v>62</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1344,13 +1330,13 @@
         <v>62</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1376,13 +1362,13 @@
         <v>62</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1408,13 +1394,13 @@
         <v>62</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1440,174 +1426,174 @@
         <v>62</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1619,896 +1605,896 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -2524,26 +2510,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2569,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -323,6 +323,70 @@
   </si>
   <si>
     <t>17;19;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫殿匾路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BannerPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Image/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>GameScene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Palace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/image_palaceCard1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palaceCard2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palaceCard3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaidsXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆坐标显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-222,-86;0,-86;222,-86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +489,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,24 +833,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="3" max="3" width="42.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -791,31 +861,37 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -829,34 +905,43 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="J3" t="s">
+      <c r="G3" s="6"/>
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -864,738 +949,868 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>122</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>39</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>242</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>39</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>122</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>39</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>99</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>242</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>39</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>99</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>122</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>39</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>99</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>39</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>99</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>39</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>99</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>242</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>39</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>99</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>122</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>39</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>99</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>39</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>99</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>39</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>99</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>242</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>39</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>99</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-63</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>39</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>99</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>143</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>39</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>99</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>342</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>39</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>99</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-145</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>39</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>99</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-145</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1604,899 +1819,1022 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
+      <c r="C304"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -389,12 +389,16 @@
     <t>-222,-86;0,-86;222,-86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -832,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -853,7 +857,7 @@
     <col min="12" max="12" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -891,7 +895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -926,10 +930,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +945,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -979,7 +983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="11"/>
@@ -1633,7 +1637,7 @@
       <c r="E22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1641,7 +1645,7 @@
       <c r="E23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="16.5">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1649,7 +1653,7 @@
       <c r="E24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="16.5">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1657,7 +1661,7 @@
       <c r="E25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="16.5">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1665,7 +1669,7 @@
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="16.5">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1673,7 +1677,7 @@
       <c r="E27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="16.5">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1681,7 +1685,7 @@
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="16.5">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1689,7 +1693,7 @@
       <c r="E29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="16.5">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1697,7 +1701,7 @@
       <c r="E30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="16.5">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1705,7 +1709,7 @@
       <c r="E31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="16.5">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1713,7 +1717,7 @@
       <c r="E32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="16.5">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1721,7 +1725,7 @@
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1729,7 +1733,7 @@
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="16.5">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1737,7 +1741,7 @@
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1745,7 +1749,7 @@
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1753,7 +1757,7 @@
       <c r="E37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1761,7 +1765,7 @@
       <c r="E38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1769,7 +1773,7 @@
       <c r="E39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1777,7 +1781,7 @@
       <c r="E40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1785,7 +1789,7 @@
       <c r="E41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1793,23 +1797,23 @@
       <c r="E42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1821,1017 +1825,1017 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -2848,26 +2852,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -390,7 +390,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]int32</t>
+    <t>ListSpliter:";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +844,7 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,7 +934,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -942,7 +946,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17;19;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宫殿匾路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>GameScene</t>
     </r>
@@ -356,6 +353,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Palace</t>
     </r>
@@ -397,12 +395,16 @@
     <t>[]string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>23;25;24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -840,14 +842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -861,7 +863,7 @@
     <col min="12" max="12" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -869,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -896,10 +898,10 @@
         <v>72</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -934,10 +936,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,10 +948,10 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -957,7 +959,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>27</v>
@@ -984,10 +986,10 @@
         <v>75</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -995,7 +997,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>59</v>
@@ -1019,13 +1021,13 @@
         <v>39</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>59</v>
@@ -1057,13 +1059,13 @@
         <v>39</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>59</v>
@@ -1095,13 +1097,13 @@
         <v>39</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>59</v>
@@ -1133,13 +1135,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>59</v>
@@ -1171,13 +1173,13 @@
         <v>39</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>59</v>
@@ -1209,13 +1211,13 @@
         <v>39</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>59</v>
@@ -1247,13 +1249,13 @@
         <v>39</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>59</v>
@@ -1285,13 +1287,13 @@
         <v>39</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>59</v>
@@ -1323,13 +1325,13 @@
         <v>39</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>59</v>
@@ -1361,13 +1363,13 @@
         <v>39</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1375,7 +1377,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>59</v>
@@ -1399,13 +1401,13 @@
         <v>39</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>59</v>
@@ -1437,13 +1439,13 @@
         <v>39</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>59</v>
@@ -1475,13 +1477,13 @@
         <v>39</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>59</v>
@@ -1513,13 +1515,13 @@
         <v>39</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>59</v>
@@ -1551,13 +1553,13 @@
         <v>39</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>59</v>
@@ -1589,13 +1591,13 @@
         <v>39</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>59</v>
@@ -1627,13 +1629,13 @@
         <v>39</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="11"/>
@@ -1641,7 +1643,7 @@
       <c r="E22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1649,7 +1651,7 @@
       <c r="E23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1657,7 +1659,7 @@
       <c r="E24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5">
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1665,7 +1667,7 @@
       <c r="E25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5">
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1673,7 +1675,7 @@
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5">
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1681,7 +1683,7 @@
       <c r="E27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5">
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1689,7 +1691,7 @@
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5">
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1697,7 +1699,7 @@
       <c r="E29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5">
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1705,7 +1707,7 @@
       <c r="E30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5">
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1713,7 +1715,7 @@
       <c r="E31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5">
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1721,7 +1723,7 @@
       <c r="E32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:14" ht="16.5">
+    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1729,7 +1731,7 @@
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1737,7 +1739,7 @@
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:14" ht="16.5">
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1745,7 +1747,7 @@
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1753,7 +1755,7 @@
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1761,7 +1763,7 @@
       <c r="E37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1769,7 +1771,7 @@
       <c r="E38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1777,7 +1779,7 @@
       <c r="E39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1785,7 +1787,7 @@
       <c r="E40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1793,7 +1795,7 @@
       <c r="E41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1801,23 +1803,23 @@
       <c r="E42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1829,1017 +1831,1017 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -2856,26 +2858,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-222,-86;0,-86;222,-86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSpliter:";"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,6 +393,10 @@
   </si>
   <si>
     <t>23;25;24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-222,-96;0,-96;222,-96</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +846,7 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,7 +936,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1021,10 +1021,10 @@
         <v>39</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1059,10 +1059,10 @@
         <v>39</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
         <v>39</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1135,10 +1135,10 @@
         <v>39</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1173,10 +1173,10 @@
         <v>39</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1211,10 +1211,10 @@
         <v>39</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1249,10 +1249,10 @@
         <v>39</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1287,10 +1287,10 @@
         <v>39</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1325,10 +1325,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
         <v>39</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1401,10 +1401,10 @@
         <v>39</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1439,10 +1439,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1477,10 +1477,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,10 +1515,10 @@
         <v>39</v>
       </c>
       <c r="K18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
         <v>39</v>
       </c>
       <c r="K19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1591,10 +1591,10 @@
         <v>39</v>
       </c>
       <c r="K20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="K21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>头像图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,6 +393,18 @@
   </si>
   <si>
     <t>-222,-96;0,-96;222,-96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,7 +866,7 @@
     <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="28.3984375" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" customWidth="1"/>
     <col min="12" max="12" width="20.09765625" customWidth="1"/>
   </cols>
@@ -871,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -889,16 +897,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -906,7 +914,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
@@ -930,13 +938,13 @@
         <v>21</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -945,10 +953,10 @@
       </c>
       <c r="G3" s="6"/>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -959,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>27</v>
@@ -980,13 +988,13 @@
         <v>61</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -997,7 +1005,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>59</v>
@@ -1009,22 +1017,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>122</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1035,7 +1043,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>59</v>
@@ -1047,22 +1055,22 @@
         <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>242</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="J6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1073,7 +1081,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>59</v>
@@ -1085,22 +1093,22 @@
         <v>2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7">
         <v>122</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>39</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1111,7 +1119,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>59</v>
@@ -1123,22 +1131,22 @@
         <v>99</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8">
         <v>242</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>39</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1149,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>59</v>
@@ -1167,16 +1175,16 @@
         <v>122</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J9">
         <v>39</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1187,7 +1195,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>59</v>
@@ -1205,16 +1213,16 @@
         <v>10</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>39</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,7 +1233,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>59</v>
@@ -1243,16 +1251,16 @@
         <v>10</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>39</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1263,7 +1271,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>59</v>
@@ -1281,16 +1289,16 @@
         <v>242</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>39</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1301,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>59</v>
@@ -1319,16 +1327,16 @@
         <v>122</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J13">
         <v>39</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1339,7 +1347,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>59</v>
@@ -1357,16 +1365,16 @@
         <v>10</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <v>39</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1377,7 +1385,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>59</v>
@@ -1395,16 +1403,16 @@
         <v>10</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J15">
         <v>39</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1415,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>59</v>
@@ -1433,16 +1441,16 @@
         <v>242</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J16">
         <v>39</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1453,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>59</v>
@@ -1471,16 +1479,16 @@
         <v>-63</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J17">
         <v>39</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1491,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>59</v>
@@ -1509,16 +1517,16 @@
         <v>143</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>39</v>
       </c>
       <c r="K18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1529,7 +1537,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>59</v>
@@ -1547,16 +1555,16 @@
         <v>342</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>39</v>
       </c>
       <c r="K19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1567,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>59</v>
@@ -1585,16 +1593,16 @@
         <v>-145</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>39</v>
       </c>
       <c r="K20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1605,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>59</v>
@@ -1617,22 +1625,22 @@
         <v>99</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21">
         <v>-145</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>39</v>
       </c>
       <c r="K21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F5" sqref="F5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
@@ -1090,7 +1090,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>64</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -405,6 +405,14 @@
   </si>
   <si>
     <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123;125;124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223;225;224</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>86</v>
@@ -1067,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>86</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-222,-96;0,-96;222,-96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/halfbody/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,6 +409,13 @@
   </si>
   <si>
     <t>223;225;224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-222,-106;0,-106;222,-106</t>
+  </si>
+  <si>
+    <t>-222,-106;0,-106;222,-106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -876,7 +879,7 @@
     <col min="7" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.3984375" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" customWidth="1"/>
-    <col min="12" max="12" width="20.09765625" customWidth="1"/>
+    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1031,16 +1034,16 @@
         <v>122</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>41</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1069,16 +1072,16 @@
         <v>242</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6">
         <v>40</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1107,7 +1110,7 @@
         <v>122</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7">
         <v>39</v>
@@ -1116,7 +1119,7 @@
         <v>85</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1145,7 +1148,7 @@
         <v>242</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8">
         <v>39</v>
@@ -1154,7 +1157,7 @@
         <v>85</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1183,7 +1186,7 @@
         <v>122</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9">
         <v>39</v>
@@ -1192,7 +1195,7 @@
         <v>85</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1221,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>39</v>
@@ -1230,7 +1233,7 @@
         <v>85</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1259,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11">
         <v>39</v>
@@ -1268,7 +1271,7 @@
         <v>85</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1297,7 +1300,7 @@
         <v>242</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12">
         <v>39</v>
@@ -1306,7 +1309,7 @@
         <v>85</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1335,7 +1338,7 @@
         <v>122</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>39</v>
@@ -1344,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1373,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14">
         <v>39</v>
@@ -1382,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1411,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15">
         <v>39</v>
@@ -1420,7 +1423,7 @@
         <v>85</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1449,7 +1452,7 @@
         <v>242</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16">
         <v>39</v>
@@ -1458,7 +1461,7 @@
         <v>85</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1487,7 +1490,7 @@
         <v>-63</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>39</v>
@@ -1496,7 +1499,7 @@
         <v>85</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1525,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18">
         <v>39</v>
@@ -1534,7 +1537,7 @@
         <v>85</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1563,7 +1566,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19">
         <v>39</v>
@@ -1572,7 +1575,7 @@
         <v>85</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1601,7 +1604,7 @@
         <v>-145</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20">
         <v>39</v>
@@ -1610,7 +1613,7 @@
         <v>85</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1639,7 +1642,7 @@
         <v>-145</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <v>39</v>
@@ -1648,7 +1651,7 @@
         <v>85</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>64</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
         <v>60</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>63</v>
@@ -1063,7 +1063,7 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>66</v>
@@ -1101,7 +1101,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>64</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
         <v>60</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>63</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -115,22 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UlockPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lockpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乾清宫</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -248,14 +232,6 @@
   </si>
   <si>
     <t>-225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Palace/image_palaceunlock1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Palace/image_palacelock1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23;25;24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/halfbody/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,15 +376,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123;125;124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223;225;224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-222,-106;0,-106;222,-106</t>
+  </si>
+  <si>
+    <t>300;301;302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200;201;202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;101;102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-222,-106;0,-106;222,-106</t>
@@ -862,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N304"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -873,16 +849,14 @@
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.3984375" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" customWidth="1"/>
-    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="24.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -890,87 +864,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E3" s="6"/>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -978,868 +940,720 @@
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>63</v>
+        <v>122</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5">
-        <v>41</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>242</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="H6">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7">
-        <v>39</v>
-      </c>
-      <c r="K7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>99</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>67</v>
+        <v>242</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H8">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>99</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>54</v>
+        <v>122</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H9">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9">
-        <v>39</v>
-      </c>
-      <c r="K9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>99</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10">
-        <v>39</v>
-      </c>
-      <c r="K10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F11">
-        <v>99</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11">
-        <v>39</v>
-      </c>
-      <c r="K11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F12">
-        <v>99</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>51</v>
+        <v>242</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H12">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12">
-        <v>39</v>
-      </c>
-      <c r="K12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>99</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>52</v>
+        <v>122</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H13">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13">
-        <v>39</v>
-      </c>
-      <c r="K13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J13" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F14">
-        <v>99</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14">
-        <v>39</v>
-      </c>
-      <c r="K14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>99</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>99</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15">
-        <v>39</v>
-      </c>
-      <c r="K15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J15" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>99</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F16">
-        <v>99</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>53</v>
+        <v>242</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16">
-        <v>39</v>
-      </c>
-      <c r="K16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J16" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F17">
-        <v>99</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
+        <v>-63</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H17">
-        <v>-63</v>
+        <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17">
-        <v>39</v>
-      </c>
-      <c r="K17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J17" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F18">
-        <v>99</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>57</v>
+        <v>143</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H18">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18">
-        <v>39</v>
-      </c>
-      <c r="K18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F19">
-        <v>99</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>57</v>
+        <v>342</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H19">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19">
-        <v>39</v>
-      </c>
-      <c r="K19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F20">
-        <v>99</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>58</v>
+        <v>-145</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H20">
-        <v>-145</v>
+        <v>1</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20">
-        <v>39</v>
-      </c>
-      <c r="K20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J20" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>99</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F21">
-        <v>99</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>65</v>
+        <v>-145</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H21">
-        <v>-145</v>
+        <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21">
-        <v>39</v>
-      </c>
-      <c r="K21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J21" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25"/>
       <c r="E25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26"/>
       <c r="E26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27"/>
       <c r="E27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29"/>
       <c r="E29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="9"/>
+      <c r="C31"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35"/>
       <c r="E35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6"/>
+      <c r="C36"/>
       <c r="E36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6"/>
+      <c r="C37"/>
       <c r="E37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
+      <c r="C38"/>
       <c r="E38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1847,10 +1661,8 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -392,6 +392,10 @@
   </si>
   <si>
     <t>-222,-106;0,-106;222,-106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L304"/>
+  <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,9 +858,19 @@
     <col min="7" max="7" width="28.3984375" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
     <col min="10" max="10" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -887,8 +901,39 @@
       <c r="J1" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -920,7 +965,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -964,7 +1009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -996,7 +1041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1028,7 +1073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1060,7 +1105,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1092,7 +1137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1124,7 +1169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1156,7 +1201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1188,387 +1233,387 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D12">
+      <c r="N12">
         <v>99</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F12">
+      <c r="P12">
         <v>242</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H12">
+      <c r="R12">
         <v>7</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="S12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="T12" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D13">
+      <c r="N13">
         <v>99</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F13">
+      <c r="P13">
         <v>122</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H13">
+      <c r="R13">
         <v>8</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="T13" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D14">
+      <c r="N14">
         <v>99</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F14">
+      <c r="P14">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H14">
+      <c r="R14">
         <v>10</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="T14" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K15">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15">
+      <c r="N15">
         <v>99</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F15">
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H15">
+      <c r="R15">
         <v>11</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="T15" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D16">
+      <c r="N16">
         <v>99</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F16">
+      <c r="P16">
         <v>242</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H16">
+      <c r="R16">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="T16" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K17">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D17">
+      <c r="N17">
         <v>99</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F17">
+      <c r="P17">
         <v>-63</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="Q17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H17">
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="S17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="T17" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K18">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D18">
+      <c r="N18">
         <v>99</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F18">
+      <c r="P18">
         <v>143</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H18">
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="S18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K19">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19">
+      <c r="N19">
         <v>99</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F19">
+      <c r="P19">
         <v>342</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H19">
+      <c r="R19">
         <v>1</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="S19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="T19" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K20">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D20">
+      <c r="N20">
         <v>99</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F20">
+      <c r="P20">
         <v>-145</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H20">
+      <c r="R20">
         <v>1</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="S20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="T20" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K21">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D21">
+      <c r="N21">
         <v>99</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F21">
+      <c r="P21">
         <v>-145</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="Q21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H21">
+      <c r="R21">
         <v>1</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="S21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="T21" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="11"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="9"/>
       <c r="C26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="9"/>
       <c r="C27"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="9"/>
       <c r="C28"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="9"/>
       <c r="C29"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="9"/>
       <c r="C30"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="9"/>
       <c r="C31"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="9"/>
       <c r="C32"/>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="PalaceMap" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -392,10 +393,6 @@
   </si>
   <si>
     <t>-222,-106;0,-106;222,-106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -901,36 +898,16 @@
       <c r="J1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1234,324 +1211,84 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12">
-        <v>99</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12">
-        <v>242</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12">
-        <v>7</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13">
-        <v>99</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13">
-        <v>8</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="11"/>
+      <c r="O13" s="10"/>
+      <c r="Q13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14">
-        <v>99</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14">
-        <v>10</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="Q14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K15">
-        <v>11</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15">
-        <v>99</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15">
-        <v>11</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="Q15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K16">
-        <v>12</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16">
-        <v>99</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="Q16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K17">
-        <v>13</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17">
-        <v>99</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17">
-        <v>-63</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K18">
-        <v>14</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18">
-        <v>99</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18">
-        <v>143</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="Q18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K19">
-        <v>15</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19">
-        <v>99</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19">
-        <v>342</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="Q19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K20">
-        <v>16</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20">
-        <v>99</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20">
-        <v>-145</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="Q20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K21">
-        <v>17</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21">
-        <v>99</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21">
-        <v>-145</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="Q21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22"/>
@@ -2814,4 +2551,340 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>242</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>122</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>242</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>99</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>-63</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>143</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>342</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>-145</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>99</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>-145</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -380,19 +380,27 @@
     <t>-222,-106;0,-106;222,-106</t>
   </si>
   <si>
-    <t>300;301;302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200;201;202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100;101;102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-222,-106;0,-106;222,-106</t>
+    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300;301;302;303;304;305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200;201;202;203;204;205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;101;102;103;104;105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +506,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,8 +867,8 @@
     <col min="4" max="4" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
-    <col min="10" max="10" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="40.19921875" customWidth="1"/>
     <col min="11" max="11" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.09765625" bestFit="1" customWidth="1"/>
@@ -986,7 +1000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1011,14 +1025,14 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J5" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1043,14 +1057,14 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1075,14 +1089,14 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1107,14 +1121,14 @@
       <c r="H8">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1139,14 +1153,14 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1171,14 +1185,14 @@
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1203,11 +1217,11 @@
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2589,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>82</v>
@@ -2621,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>82</v>
@@ -2653,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>82</v>
@@ -2685,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>82</v>
@@ -2717,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>82</v>
@@ -2749,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>82</v>
@@ -2781,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>82</v>
@@ -2813,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>82</v>
@@ -2845,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>82</v>
@@ -2877,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>82</v>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -377,13 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-222,-106;0,-106;222,-106</t>
-  </si>
-  <si>
-    <t>100;101;102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +395,12 @@
   <si>
     <t>100;101;102;103;104;105</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;101;102;103;104;105</t>
+  </si>
+  <si>
+    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
   </si>
 </sst>
 </file>
@@ -855,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1026,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1042,7 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>60</v>
@@ -1058,10 +1057,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,7 +1074,7 @@
         <v>74</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>58</v>
@@ -1090,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1107,7 +1106,7 @@
         <v>74</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>61</v>
@@ -1122,108 +1121,15 @@
         <v>6</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9">
-        <v>99</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>122</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>99</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L12" s="9"/>
       <c r="M12" s="11"/>
@@ -2569,15 +2475,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>122</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2602,14 +2608,14 @@
       <c r="H4">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -2634,14 +2640,14 @@
       <c r="H5">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2666,14 +2672,14 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2698,14 +2704,14 @@
       <c r="H7">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2730,14 +2736,14 @@
       <c r="H8">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -2762,14 +2768,14 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2794,14 +2800,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2826,14 +2832,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2858,14 +2864,14 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2890,11 +2896,11 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>82</v>
+      <c r="I13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PalaceMap" sheetId="1" r:id="rId1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1095,38 +1095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8">
-        <v>242</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2475,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2489,28 +2458,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F1">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>86</v>
@@ -2521,28 +2490,28 @@
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>86</v>
@@ -2553,10 +2522,10 @@
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>74</v>
@@ -2565,7 +2534,7 @@
         <v>99</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -2574,7 +2543,7 @@
         <v>79</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>86</v>
@@ -2585,10 +2554,10 @@
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>74</v>
@@ -2597,30 +2566,30 @@
         <v>99</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>74</v>
@@ -2629,16 +2598,16 @@
         <v>99</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>87</v>
@@ -2649,10 +2618,10 @@
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>74</v>
@@ -2661,16 +2630,16 @@
         <v>99</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>87</v>
@@ -2681,10 +2650,10 @@
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>74</v>
@@ -2693,7 +2662,7 @@
         <v>99</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2702,7 +2671,7 @@
         <v>79</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>87</v>
@@ -2713,10 +2682,10 @@
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>74</v>
@@ -2725,16 +2694,16 @@
         <v>99</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>87</v>
@@ -2745,10 +2714,10 @@
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>74</v>
@@ -2757,16 +2726,16 @@
         <v>99</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>-63</v>
+        <v>242</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>87</v>
@@ -2777,10 +2746,10 @@
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>74</v>
@@ -2792,7 +2761,7 @@
         <v>53</v>
       </c>
       <c r="F10">
-        <v>143</v>
+        <v>-63</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>79</v>
@@ -2809,10 +2778,10 @@
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>74</v>
@@ -2824,7 +2793,7 @@
         <v>53</v>
       </c>
       <c r="F11">
-        <v>342</v>
+        <v>143</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>79</v>
@@ -2841,10 +2810,10 @@
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>74</v>
@@ -2853,10 +2822,10 @@
         <v>99</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>-145</v>
+        <v>342</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>79</v>
@@ -2873,10 +2842,10 @@
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>74</v>
@@ -2885,7 +2854,7 @@
         <v>99</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>-145</v>
@@ -2900,6 +2869,38 @@
         <v>87</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>-145</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>88</v>
       </c>
     </row>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="2"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="PalaceMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -402,12 +402,38 @@
   <si>
     <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
   </si>
+  <si>
+    <t>[]uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 屏风 1 灯笼 2 主坐 3 栏窗 4 客椅 5 地毯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2;3;4;5;6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -851,14 +877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -868,9 +894,9 @@
     <col min="7" max="7" width="28.3984375" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="10" max="10" width="40.19921875" customWidth="1"/>
-    <col min="11" max="11" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.3984375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.59765625" bestFit="1" customWidth="1"/>
@@ -880,7 +906,7 @@
     <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -911,7 +937,9 @@
       <c r="J1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -923,7 +951,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -954,8 +982,14 @@
       <c r="J2" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,11 +997,14 @@
       <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -998,8 +1035,13 @@
       <c r="J4" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="35.25" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1030,8 +1072,11 @@
       <c r="J5" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1062,8 +1107,11 @@
       <c r="J6" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1094,12 +1142,15 @@
       <c r="J7" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K7" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1"/>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1"/>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1"/>
+    <row r="11" spans="1:21" ht="35.25" customHeight="1"/>
+    <row r="12" spans="1:21">
       <c r="L12" s="9"/>
       <c r="M12" s="11"/>
       <c r="O12" s="10"/>
@@ -1107,7 +1158,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="L13" s="9"/>
       <c r="M13" s="11"/>
       <c r="O13" s="10"/>
@@ -1115,7 +1166,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="L14" s="9"/>
       <c r="M14" s="11"/>
       <c r="O14" s="10"/>
@@ -1123,7 +1174,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="L15" s="9"/>
       <c r="M15" s="11"/>
       <c r="O15" s="10"/>
@@ -1131,7 +1182,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="L16" s="9"/>
       <c r="M16" s="11"/>
       <c r="O16" s="10"/>
@@ -1139,7 +1190,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="L17" s="9"/>
       <c r="M17" s="11"/>
       <c r="O17" s="10"/>
@@ -1147,7 +1198,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="L18" s="9"/>
       <c r="M18" s="11"/>
       <c r="O18" s="10"/>
@@ -1155,7 +1206,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="L19" s="8"/>
       <c r="M19" s="11"/>
       <c r="O19" s="10"/>
@@ -1163,7 +1214,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="L20" s="8"/>
       <c r="M20" s="11"/>
       <c r="O20" s="10"/>
@@ -1171,7 +1222,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="L21" s="8"/>
       <c r="M21" s="11"/>
       <c r="O21" s="10"/>
@@ -1179,149 +1230,149 @@
       <c r="S21" s="6"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="11"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="16.5">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26"/>
       <c r="B26" s="9"/>
       <c r="C26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27"/>
       <c r="B27" s="9"/>
       <c r="C27"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28"/>
       <c r="B28" s="9"/>
       <c r="C28"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29"/>
       <c r="B29" s="9"/>
       <c r="C29"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30"/>
       <c r="B30" s="9"/>
       <c r="C30"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31"/>
       <c r="B31" s="9"/>
       <c r="C31"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32"/>
       <c r="B32" s="9"/>
       <c r="C32"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34"/>
       <c r="B34" s="9"/>
       <c r="C34"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35"/>
       <c r="B35" s="9"/>
       <c r="C35"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1333,1017 +1384,1017 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -2360,26 +2411,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2443,20 +2494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1">
       <c r="A1">
         <v>4</v>
       </c>
@@ -2488,7 +2539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2520,7 +2571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2552,7 +2603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2584,7 +2635,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2616,7 +2667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1">
       <c r="A6">
         <v>9</v>
       </c>
@@ -2648,7 +2699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2680,7 +2731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2712,7 +2763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2744,7 +2795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2776,7 +2827,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2808,7 +2859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2840,7 +2891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2872,7 +2923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>17</v>
       </c>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -411,7 +411,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 屏风 1 灯笼 2 主坐 3 栏窗 4 客椅 5 地毯</t>
+    <t>0 屏风 1 灯笼 2 栏窗 3 客椅 4 地毯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,7 +424,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>;2;3;4;5;6</t>
+      <t>;2;3;4;5</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,8 +432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -877,14 +877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -906,7 +906,7 @@
     <col min="21" max="21" width="2.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="35.25" customHeight="1">
+    <row r="5" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1">
+    <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1">
+    <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1146,11 +1146,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1"/>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1"/>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1"/>
-    <row r="11" spans="1:21" ht="35.25" customHeight="1"/>
-    <row r="12" spans="1:21">
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L12" s="9"/>
       <c r="M12" s="11"/>
       <c r="O12" s="10"/>
@@ -1158,7 +1158,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L13" s="9"/>
       <c r="M13" s="11"/>
       <c r="O13" s="10"/>
@@ -1166,7 +1166,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L14" s="9"/>
       <c r="M14" s="11"/>
       <c r="O14" s="10"/>
@@ -1174,7 +1174,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L15" s="9"/>
       <c r="M15" s="11"/>
       <c r="O15" s="10"/>
@@ -1182,7 +1182,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L16" s="9"/>
       <c r="M16" s="11"/>
       <c r="O16" s="10"/>
@@ -1190,7 +1190,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
       <c r="M17" s="11"/>
       <c r="O17" s="10"/>
@@ -1198,7 +1198,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
       <c r="M18" s="11"/>
       <c r="O18" s="10"/>
@@ -1206,7 +1206,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L19" s="8"/>
       <c r="M19" s="11"/>
       <c r="O19" s="10"/>
@@ -1214,7 +1214,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L20" s="8"/>
       <c r="M20" s="11"/>
       <c r="O20" s="10"/>
@@ -1222,7 +1222,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L21" s="8"/>
       <c r="M21" s="11"/>
       <c r="O21" s="10"/>
@@ -1230,149 +1230,149 @@
       <c r="S21" s="6"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8"/>
       <c r="C22" s="11"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="9"/>
       <c r="C26"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="9"/>
       <c r="C27"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="9"/>
       <c r="C28"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="9"/>
       <c r="C29"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="9"/>
       <c r="C30"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="9"/>
       <c r="C31"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="9"/>
       <c r="C32"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="9"/>
       <c r="C33"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="9"/>
       <c r="C34"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="9"/>
       <c r="C35"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="8"/>
       <c r="C36"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="8"/>
       <c r="C37"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="8"/>
       <c r="C38"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1384,1017 +1384,1017 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -2411,26 +2411,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2494,20 +2494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>4</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1">
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1">
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -415,17 +415,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;2;3;4;5</t>
-    </r>
+    <t>101;102;103;104;105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;302;303;304;305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,7 +1141,7 @@
         <v>83</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>301;302;303;304;305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403;404;405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400;401;402;403;404;405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1156,41 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>122</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/docs/excel/PalaceMap.xlsx
+++ b/docs/excel/PalaceMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -369,73 +369,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300;301;302;303;304;305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200;201;202;203;204;205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;101;102;103;104;105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;101;102;103;104;105</t>
+  </si>
+  <si>
+    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
+  </si>
+  <si>
+    <t>[]uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 屏风 1 灯笼 2 栏窗 3 客椅 4 地毯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;302;303;304;305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403;404;405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400;401;402;403;404;405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承乾宫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_palaceCard3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/GameScene/halfbody/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300;301;302;303;304;305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200;201;202;203;204;205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;101;102;103;104;105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;101;102;103;104;105</t>
-  </si>
-  <si>
-    <t>-222,-106;0,-106;222,-106;-222,-350;0,-350;222,-350</t>
-  </si>
-  <si>
-    <t>[]uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 屏风 1 灯笼 2 栏窗 3 客椅 4 地毯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;104;105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;202;203;204;205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;302;303;304;305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;402;403;404;405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400;401;402;403;404;405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -993,7 +1001,7 @@
         <v>78</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1046,7 +1054,7 @@
         <v>76</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1071,19 +1079,19 @@
         <v>122</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>84</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1106,19 +1114,19 @@
         <v>242</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,27 +1152,27 @@
         <v>79</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
+      <c r="B8" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>14</v>
@@ -1176,22 +1184,24 @@
         <v>122</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="13"/>
+    </row>
     <row r="10" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2577,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2641,10 +2651,10 @@
         <v>9</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,10 +2683,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2705,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,10 +2747,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2769,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2801,10 +2811,10 @@
         <v>11</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,10 +2843,10 @@
         <v>12</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,10 +2875,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2929,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2961,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2993,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
